--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H2">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I2">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J2">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N2">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O2">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P2">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q2">
-        <v>1.752930999399999</v>
+        <v>9.118064474123221</v>
       </c>
       <c r="R2">
-        <v>15.77637899459999</v>
+        <v>82.06258026710898</v>
       </c>
       <c r="S2">
-        <v>0.003096867708645936</v>
+        <v>0.01818346908844922</v>
       </c>
       <c r="T2">
-        <v>0.003096867708645937</v>
+        <v>0.01818346908844922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H3">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I3">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J3">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>46.112413</v>
       </c>
       <c r="O3">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P3">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q3">
-        <v>3.329213746571111</v>
+        <v>11.47839919238744</v>
       </c>
       <c r="R3">
-        <v>29.96292371914</v>
+        <v>103.305592731487</v>
       </c>
       <c r="S3">
-        <v>0.005881654526313486</v>
+        <v>0.02289050680569217</v>
       </c>
       <c r="T3">
-        <v>0.005881654526313487</v>
+        <v>0.02289050680569217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H4">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I4">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J4">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N4">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O4">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P4">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q4">
-        <v>16.04415715908222</v>
+        <v>26.77332446597378</v>
       </c>
       <c r="R4">
-        <v>144.39741443174</v>
+        <v>240.959920193764</v>
       </c>
       <c r="S4">
-        <v>0.0283448876398496</v>
+        <v>0.05339202406428131</v>
       </c>
       <c r="T4">
-        <v>0.02834488763984961</v>
+        <v>0.05339202406428131</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H5">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I5">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J5">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N5">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O5">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P5">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q5">
-        <v>3.382501121404444</v>
+        <v>6.391778158819554</v>
       </c>
       <c r="R5">
-        <v>30.44251009264</v>
+        <v>57.52600342937599</v>
       </c>
       <c r="S5">
-        <v>0.005975796252631491</v>
+        <v>0.01274664166950808</v>
       </c>
       <c r="T5">
-        <v>0.005975796252631491</v>
+        <v>0.01274664166950807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H6">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I6">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J6">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N6">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O6">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P6">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q6">
-        <v>25.11440838293777</v>
+        <v>107.7151411422346</v>
       </c>
       <c r="R6">
-        <v>226.0296754464399</v>
+        <v>969.4362702801118</v>
       </c>
       <c r="S6">
-        <v>0.04436911685028577</v>
+        <v>0.2148081914617201</v>
       </c>
       <c r="T6">
-        <v>0.04436911685028578</v>
+        <v>0.2148081914617201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H7">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I7">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J7">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N7">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O7">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P7">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q7">
-        <v>22.78217418288666</v>
+        <v>33.39188834148544</v>
       </c>
       <c r="R7">
-        <v>205.03956764598</v>
+        <v>300.5269950733689</v>
       </c>
       <c r="S7">
-        <v>0.04024880590501174</v>
+        <v>0.06659092740411161</v>
       </c>
       <c r="T7">
-        <v>0.04024880590501174</v>
+        <v>0.06659092740411161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.060375</v>
       </c>
       <c r="I8">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J8">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N8">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O8">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P8">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q8">
-        <v>2.860605448749999</v>
+        <v>4.315748753513889</v>
       </c>
       <c r="R8">
-        <v>25.74544903875</v>
+        <v>38.841738781625</v>
       </c>
       <c r="S8">
-        <v>0.005053773733502779</v>
+        <v>0.008606572620290572</v>
       </c>
       <c r="T8">
-        <v>0.005053773733502779</v>
+        <v>0.008606572620290572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.060375</v>
       </c>
       <c r="I9">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J9">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>46.112413</v>
       </c>
       <c r="O9">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P9">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q9">
         <v>5.432938881652778</v>
       </c>
       <c r="R9">
-        <v>48.89644993487501</v>
+        <v>48.896449934875</v>
       </c>
       <c r="S9">
-        <v>0.009598263132659768</v>
+        <v>0.01083450073141391</v>
       </c>
       <c r="T9">
-        <v>0.00959826313265977</v>
+        <v>0.0108345007314139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.060375</v>
       </c>
       <c r="I10">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J10">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N10">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O10">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P10">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q10">
-        <v>26.18243582068056</v>
+        <v>12.67231022761111</v>
       </c>
       <c r="R10">
-        <v>235.641922386125</v>
+        <v>114.0507920485</v>
       </c>
       <c r="S10">
-        <v>0.04625597930238778</v>
+        <v>0.02527143364218897</v>
       </c>
       <c r="T10">
-        <v>0.04625597930238778</v>
+        <v>0.02527143364218896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.060375</v>
       </c>
       <c r="I11">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J11">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N11">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O11">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P11">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q11">
-        <v>5.519898468111112</v>
+        <v>3.025346958222222</v>
       </c>
       <c r="R11">
-        <v>49.67908621300001</v>
+        <v>27.228122624</v>
       </c>
       <c r="S11">
-        <v>0.009751892873563543</v>
+        <v>0.006033221529940703</v>
       </c>
       <c r="T11">
-        <v>0.009751892873563544</v>
+        <v>0.006033221529940702</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.060375</v>
       </c>
       <c r="I12">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J12">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N12">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O12">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P12">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q12">
-        <v>40.98416508519444</v>
+        <v>50.98357084866667</v>
       </c>
       <c r="R12">
-        <v>368.85748576675</v>
+        <v>458.852137638</v>
       </c>
       <c r="S12">
-        <v>0.07240589473378957</v>
+        <v>0.1016726945917583</v>
       </c>
       <c r="T12">
-        <v>0.07240589473378958</v>
+        <v>0.1016726945917583</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.060375</v>
       </c>
       <c r="I13">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J13">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N13">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O13">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P13">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q13">
-        <v>37.17819561879167</v>
+        <v>15.80499906490278</v>
       </c>
       <c r="R13">
-        <v>334.603760569125</v>
+        <v>142.244991584125</v>
       </c>
       <c r="S13">
-        <v>0.06568196552914346</v>
+        <v>0.03151871899515862</v>
       </c>
       <c r="T13">
-        <v>0.06568196552914346</v>
+        <v>0.03151871899515862</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H14">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I14">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J14">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N14">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O14">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P14">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q14">
-        <v>1.66894796677</v>
+        <v>3.164649071360111</v>
       </c>
       <c r="R14">
-        <v>15.02053170093</v>
+        <v>28.481841642241</v>
       </c>
       <c r="S14">
-        <v>0.002948496585130506</v>
+        <v>0.006311021240108032</v>
       </c>
       <c r="T14">
-        <v>0.002948496585130507</v>
+        <v>0.006311021240108031</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H15">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I15">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J15">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>46.112413</v>
       </c>
       <c r="O15">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P15">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q15">
-        <v>3.169710910004111</v>
+        <v>3.983861426729221</v>
       </c>
       <c r="R15">
-        <v>28.527398190037</v>
+        <v>35.85475284056299</v>
       </c>
       <c r="S15">
-        <v>0.005599864094076938</v>
+        <v>0.007944714726593529</v>
       </c>
       <c r="T15">
-        <v>0.005599864094076938</v>
+        <v>0.007944714726593527</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H16">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I16">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J16">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N16">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O16">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P16">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q16">
-        <v>15.27548059698522</v>
+        <v>9.292342322092887</v>
       </c>
       <c r="R16">
-        <v>137.479325372867</v>
+        <v>83.63108089883599</v>
       </c>
       <c r="S16">
-        <v>0.0269868823194086</v>
+        <v>0.01853101827176016</v>
       </c>
       <c r="T16">
-        <v>0.0269868823194086</v>
+        <v>0.01853101827176015</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H17">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I17">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J17">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N17">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O17">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P17">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q17">
-        <v>3.220445283412444</v>
+        <v>2.218424192113777</v>
       </c>
       <c r="R17">
-        <v>28.984007550712</v>
+        <v>19.965817729024</v>
       </c>
       <c r="S17">
-        <v>0.005689495484462772</v>
+        <v>0.004424036245504584</v>
       </c>
       <c r="T17">
-        <v>0.005689495484462772</v>
+        <v>0.004424036245504583</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H18">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I18">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J18">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N18">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O18">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P18">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q18">
-        <v>23.91117552355577</v>
+        <v>37.38519532896532</v>
       </c>
       <c r="R18">
-        <v>215.200579712002</v>
+        <v>336.466757960688</v>
       </c>
       <c r="S18">
-        <v>0.04224338971700028</v>
+        <v>0.07455447870094659</v>
       </c>
       <c r="T18">
-        <v>0.04224338971700029</v>
+        <v>0.07455447870094657</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H19">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I19">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J19">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N19">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O19">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P19">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q19">
-        <v>21.69067880831767</v>
+        <v>11.58947808833122</v>
       </c>
       <c r="R19">
-        <v>195.216109274859</v>
+        <v>104.305302794981</v>
       </c>
       <c r="S19">
-        <v>0.038320483124026</v>
+        <v>0.02311202307995245</v>
       </c>
       <c r="T19">
-        <v>0.038320483124026</v>
+        <v>0.02311202307995245</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H20">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I20">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J20">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N20">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O20">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P20">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q20">
-        <v>4.329878231839999</v>
+        <v>1.020333970305</v>
       </c>
       <c r="R20">
-        <v>38.96890408655999</v>
+        <v>9.183005732744999</v>
       </c>
       <c r="S20">
-        <v>0.007649508214039209</v>
+        <v>0.002034775172032295</v>
       </c>
       <c r="T20">
-        <v>0.00764950821403921</v>
+        <v>0.002034775172032295</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H21">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I21">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J21">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>46.112413</v>
       </c>
       <c r="O21">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P21">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q21">
-        <v>8.223421307144889</v>
+        <v>1.284461264115</v>
       </c>
       <c r="R21">
-        <v>74.010791764304</v>
+        <v>11.560151377035</v>
       </c>
       <c r="S21">
-        <v>0.01452815194060968</v>
+        <v>0.002561504336543024</v>
       </c>
       <c r="T21">
-        <v>0.01452815194060968</v>
+        <v>0.002561504336543024</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H22">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I22">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J22">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N22">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O22">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P22">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q22">
-        <v>39.63033733507378</v>
+        <v>2.99600123778</v>
       </c>
       <c r="R22">
-        <v>356.673036015664</v>
+        <v>26.96401114002</v>
       </c>
       <c r="S22">
-        <v>0.07001411465582155</v>
+        <v>0.005974699570367618</v>
       </c>
       <c r="T22">
-        <v>0.07001411465582157</v>
+        <v>0.005974699570367617</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H23">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I23">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J23">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N23">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O23">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P23">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q23">
-        <v>8.355045338211555</v>
+        <v>0.7152557875199999</v>
       </c>
       <c r="R23">
-        <v>75.195408043904</v>
+        <v>6.437302087679999</v>
       </c>
       <c r="S23">
-        <v>0.01476068945157371</v>
+        <v>0.00142638073459718</v>
       </c>
       <c r="T23">
-        <v>0.01476068945157371</v>
+        <v>0.001426380734597179</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H24">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I24">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J24">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N24">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O24">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P24">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q24">
-        <v>62.03457534839821</v>
+        <v>12.05359075224</v>
       </c>
       <c r="R24">
-        <v>558.311178135584</v>
+        <v>108.48231677016</v>
       </c>
       <c r="S24">
-        <v>0.1095952283813652</v>
+        <v>0.0240375680025282</v>
       </c>
       <c r="T24">
-        <v>0.1095952283813652</v>
+        <v>0.0240375680025282</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H25">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I25">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J25">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N25">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O25">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P25">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q25">
-        <v>56.27377238592533</v>
+        <v>3.736634908005</v>
       </c>
       <c r="R25">
-        <v>506.4639514733279</v>
+        <v>33.629714172045</v>
       </c>
       <c r="S25">
-        <v>0.09941773441471127</v>
+        <v>0.007451689504648158</v>
       </c>
       <c r="T25">
-        <v>0.09941773441471129</v>
+        <v>0.007451689504648157</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H26">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I26">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J26">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N26">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O26">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P26">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q26">
-        <v>1.58539926867</v>
+        <v>1.607344991143666</v>
       </c>
       <c r="R26">
-        <v>14.26859341803</v>
+        <v>14.466104920293</v>
       </c>
       <c r="S26">
-        <v>0.002800892791636147</v>
+        <v>0.003205407029515985</v>
       </c>
       <c r="T26">
-        <v>0.002800892791636148</v>
+        <v>0.003205407029515985</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H27">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I27">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J27">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>46.112413</v>
       </c>
       <c r="O27">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P27">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q27">
-        <v>3.011032973269667</v>
+        <v>2.023428053244333</v>
       </c>
       <c r="R27">
-        <v>27.09929675942701</v>
+        <v>18.210852479199</v>
       </c>
       <c r="S27">
-        <v>0.005319530995674511</v>
+        <v>0.004035170135425838</v>
       </c>
       <c r="T27">
-        <v>0.005319530995674513</v>
+        <v>0.004035170135425837</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H28">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I28">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J28">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N28">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O28">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P28">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q28">
-        <v>14.51077939470633</v>
+        <v>4.719638592025333</v>
       </c>
       <c r="R28">
-        <v>130.597014552357</v>
+        <v>42.47674732822799</v>
       </c>
       <c r="S28">
-        <v>0.0256359001866773</v>
+        <v>0.009412019698950081</v>
       </c>
       <c r="T28">
-        <v>0.02563590018667731</v>
+        <v>0.009412019698950079</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H29">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I29">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J29">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N29">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O29">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P29">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q29">
-        <v>3.059227548594667</v>
+        <v>1.126751476394666</v>
       </c>
       <c r="R29">
-        <v>27.533047937352</v>
+        <v>10.140763287552</v>
       </c>
       <c r="S29">
-        <v>0.005404675376204596</v>
+        <v>0.002246995587663583</v>
       </c>
       <c r="T29">
-        <v>0.005404675376204597</v>
+        <v>0.002246995587663583</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H30">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I30">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J30">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N30">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O30">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P30">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q30">
-        <v>22.71416541610466</v>
+        <v>18.98817375953599</v>
       </c>
       <c r="R30">
-        <v>204.427488744942</v>
+        <v>170.893563835824</v>
       </c>
       <c r="S30">
-        <v>0.04012865619357182</v>
+        <v>0.03786668449016711</v>
       </c>
       <c r="T30">
-        <v>0.04012865619357183</v>
+        <v>0.0378666844901671</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H31">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I31">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J31">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N31">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O31">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P31">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q31">
-        <v>20.604828313621</v>
+        <v>5.886368167590332</v>
       </c>
       <c r="R31">
-        <v>185.443454822589</v>
+        <v>52.97731350831299</v>
       </c>
       <c r="S31">
-        <v>0.03640213303803041</v>
+        <v>0.0117387405981139</v>
       </c>
       <c r="T31">
-        <v>0.03640213303803042</v>
+        <v>0.0117387405981139</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H32">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I32">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J32">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N32">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O32">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P32">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q32">
-        <v>1.50588367692</v>
+        <v>4.237030473054888</v>
       </c>
       <c r="R32">
-        <v>13.55295309228</v>
+        <v>38.13327425749399</v>
       </c>
       <c r="S32">
-        <v>0.002660414205480311</v>
+        <v>0.008449590683665284</v>
       </c>
       <c r="T32">
-        <v>0.002660414205480312</v>
+        <v>0.008449590683665284</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H33">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I33">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J33">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>46.112413</v>
       </c>
       <c r="O33">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P33">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q33">
-        <v>2.860014820694667</v>
+        <v>5.333843306115777</v>
       </c>
       <c r="R33">
-        <v>25.740133386252</v>
+        <v>48.004589755042</v>
       </c>
       <c r="S33">
-        <v>0.005052730282874656</v>
+        <v>0.01063688189029989</v>
       </c>
       <c r="T33">
-        <v>0.005052730282874657</v>
+        <v>0.01063688189029989</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H34">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I34">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J34">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N34">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O34">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P34">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q34">
-        <v>13.78299224788134</v>
+        <v>12.44117015724711</v>
       </c>
       <c r="R34">
-        <v>124.046930230932</v>
+        <v>111.970531415224</v>
       </c>
       <c r="S34">
-        <v>0.02435013336839332</v>
+        <v>0.02481048841236596</v>
       </c>
       <c r="T34">
-        <v>0.02435013336839332</v>
+        <v>0.02481048841236595</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H35">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I35">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J35">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N35">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O35">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P35">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q35">
-        <v>2.905792200394667</v>
+        <v>2.970165314446222</v>
       </c>
       <c r="R35">
-        <v>26.152129803552</v>
+        <v>26.731487830016</v>
       </c>
       <c r="S35">
-        <v>0.005133604252830049</v>
+        <v>0.005923176934763918</v>
       </c>
       <c r="T35">
-        <v>0.00513360425283005</v>
+        <v>0.005923176934763917</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H36">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I36">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J36">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N36">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O36">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P36">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q36">
-        <v>21.57493800515466</v>
+        <v>50.05364205575466</v>
       </c>
       <c r="R36">
-        <v>194.174442046392</v>
+        <v>450.482778501792</v>
       </c>
       <c r="S36">
-        <v>0.03811600619024427</v>
+        <v>0.09981820765449627</v>
       </c>
       <c r="T36">
-        <v>0.03811600619024428</v>
+        <v>0.09981820765449625</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H37">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I37">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J37">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N37">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O37">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P37">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q37">
-        <v>19.571394560596</v>
+        <v>15.51671945918378</v>
       </c>
       <c r="R37">
-        <v>176.142551045364</v>
+        <v>139.650475132654</v>
       </c>
       <c r="S37">
-        <v>0.03457638654837203</v>
+        <v>0.03094382469447692</v>
       </c>
       <c r="T37">
-        <v>0.03457638654837204</v>
+        <v>0.03094382469447691</v>
       </c>
     </row>
   </sheetData>
